--- a/findfunktion/funktioner.xlsx
+++ b/findfunktion/funktioner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Documents/rstatsdk/findfunktion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46EFC78-8358-2E43-9739-D44038BAF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7537CA59-FBA0-8441-8B74-D9CA8D161704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FF600F36-EA5E-C74D-94C9-FE8E6309351C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Beskrivelse</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>Tæl antallet af kolonner i datasæt</t>
+  </si>
+  <si>
+    <t>tidyr</t>
+  </si>
+  <si>
+    <t>drop_na()</t>
+  </si>
+  <si>
+    <t>drop_na(mtcars, cyl)</t>
+  </si>
+  <si>
+    <t>Fjern observationer med manglende værdier</t>
   </si>
 </sst>
 </file>
@@ -462,13 +474,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC1C9-0902-B24C-86A0-1CDE76C4733F}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -582,6 +599,20 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/findfunktion/funktioner.xlsx
+++ b/findfunktion/funktioner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Documents/rstatsdk/findfunktion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7537CA59-FBA0-8441-8B74-D9CA8D161704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D0AAD4-6B46-3348-BF59-3898B2260637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FF600F36-EA5E-C74D-94C9-FE8E6309351C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>Beskrivelse</t>
   </si>
@@ -123,6 +123,195 @@
   </si>
   <si>
     <t>Fjern observationer med manglende værdier</t>
+  </si>
+  <si>
+    <t>Roter et datasæt så kolonner bliver til rækker og vice versa</t>
+  </si>
+  <si>
+    <t>sjmisc</t>
+  </si>
+  <si>
+    <t>rotate_df()</t>
+  </si>
+  <si>
+    <t>rotate_df(mtcars)</t>
+  </si>
+  <si>
+    <t>mean()</t>
+  </si>
+  <si>
+    <t>mean(mtcars$disp)</t>
+  </si>
+  <si>
+    <t>median()</t>
+  </si>
+  <si>
+    <t>median(mtcars$disp)</t>
+  </si>
+  <si>
+    <t>Find minimumværdien på en variabel</t>
+  </si>
+  <si>
+    <t>min()</t>
+  </si>
+  <si>
+    <t>min(mtcars$disp)</t>
+  </si>
+  <si>
+    <t>max(mtcars$disp)</t>
+  </si>
+  <si>
+    <t>max()</t>
+  </si>
+  <si>
+    <t>Find maksimumværdien på en variabel</t>
+  </si>
+  <si>
+    <t>Få antallet af observationer i variabel</t>
+  </si>
+  <si>
+    <t>length()</t>
+  </si>
+  <si>
+    <t>length(mtcars$disp)</t>
+  </si>
+  <si>
+    <t>Udregn summen af værdierne på en variabel</t>
+  </si>
+  <si>
+    <t>sum()</t>
+  </si>
+  <si>
+    <t>sum(mtcars$disp)</t>
+  </si>
+  <si>
+    <t>var()</t>
+  </si>
+  <si>
+    <t>var(mtcars$disp)</t>
+  </si>
+  <si>
+    <t>sd()</t>
+  </si>
+  <si>
+    <t>sd(mtcars$disp)</t>
+  </si>
+  <si>
+    <t>Find ud af om værdi er numerisk</t>
+  </si>
+  <si>
+    <t>is.numeric()</t>
+  </si>
+  <si>
+    <t>is.numeric(mtcars$disp)</t>
+  </si>
+  <si>
+    <t>Skift antal værdier i videnskabelig notation i output</t>
+  </si>
+  <si>
+    <t>options(scipen = 100)</t>
+  </si>
+  <si>
+    <t>options()</t>
+  </si>
+  <si>
+    <t>Find ud af om værdi er tekst</t>
+  </si>
+  <si>
+    <t>is.character()</t>
+  </si>
+  <si>
+    <t>is.character(mtcars$disp)</t>
+  </si>
+  <si>
+    <t>Undersøg om der er manglende værdier i variabel</t>
+  </si>
+  <si>
+    <t>anyNA(mtcars$disp)</t>
+  </si>
+  <si>
+    <t>anyNA()</t>
+  </si>
+  <si>
+    <t>Få vist de første observationer i datasæt</t>
+  </si>
+  <si>
+    <t>head()</t>
+  </si>
+  <si>
+    <t>head(mtcars)</t>
+  </si>
+  <si>
+    <t>Få vist de sidste observationer i datasæt</t>
+  </si>
+  <si>
+    <t>tail()</t>
+  </si>
+  <si>
+    <t>tail(mtcars)</t>
+  </si>
+  <si>
+    <t>Installer en pakke</t>
+  </si>
+  <si>
+    <t>install.packages()</t>
+  </si>
+  <si>
+    <t>install.packages("ggplot2")</t>
+  </si>
+  <si>
+    <t>Åben pakke</t>
+  </si>
+  <si>
+    <t>library()</t>
+  </si>
+  <si>
+    <t>library("ggplot2")</t>
+  </si>
+  <si>
+    <t>Opdater pakke</t>
+  </si>
+  <si>
+    <t>update.packages()</t>
+  </si>
+  <si>
+    <t>update.packages("ggplot2")</t>
+  </si>
+  <si>
+    <t>Skift working directory</t>
+  </si>
+  <si>
+    <t>setwd()</t>
+  </si>
+  <si>
+    <t>setwd("~/Desktop/")</t>
+  </si>
+  <si>
+    <t>Fjern objekt fra hukommelsen</t>
+  </si>
+  <si>
+    <t>rm()</t>
+  </si>
+  <si>
+    <t>rm(x)</t>
+  </si>
+  <si>
+    <t>Se hvad dit working directory er</t>
+  </si>
+  <si>
+    <t>getwd()</t>
+  </si>
+  <si>
+    <t>Udregn gennemsnittet på en variabel</t>
+  </si>
+  <si>
+    <t>Udregn medianen på en variabel</t>
+  </si>
+  <si>
+    <t>Udregn variansen på en variabel</t>
+  </si>
+  <si>
+    <t>Udregn standardafvigelsen på en variabel</t>
   </si>
 </sst>
 </file>
@@ -474,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC1C9-0902-B24C-86A0-1CDE76C4733F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,6 +802,300 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/findfunktion/funktioner.xlsx
+++ b/findfunktion/funktioner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Documents/rstatsdk/findfunktion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D0AAD4-6B46-3348-BF59-3898B2260637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A524B8-93F6-DC4D-A8FB-6BBFA048BED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FF600F36-EA5E-C74D-94C9-FE8E6309351C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="175">
   <si>
     <t>Beskrivelse</t>
   </si>
@@ -312,6 +312,252 @@
   </si>
   <si>
     <t>Udregn standardafvigelsen på en variabel</t>
+  </si>
+  <si>
+    <t>readr</t>
+  </si>
+  <si>
+    <t>read_csv(), read_csv2()</t>
+  </si>
+  <si>
+    <t>x &lt;- read_csv("filnavn.csv")</t>
+  </si>
+  <si>
+    <t>readxl</t>
+  </si>
+  <si>
+    <t>read_xlsx()</t>
+  </si>
+  <si>
+    <t>x &lt;- read_xlsx("filnavn.csv")</t>
+  </si>
+  <si>
+    <t>Indlæs CSV-fil og gem i et objekt</t>
+  </si>
+  <si>
+    <t>Indlæs Excel-fil og gem i et objekt</t>
+  </si>
+  <si>
+    <t>Indlæs Stata-fil og gem i et objekt</t>
+  </si>
+  <si>
+    <t>haven</t>
+  </si>
+  <si>
+    <t>read_dta()</t>
+  </si>
+  <si>
+    <t>x &lt;- read_dta("filnavn.dta")</t>
+  </si>
+  <si>
+    <t>Indlæs SPSS-fil og gem i et objekt</t>
+  </si>
+  <si>
+    <t>read_sav()</t>
+  </si>
+  <si>
+    <t>x &lt;- read_sav("filnavn.sav")</t>
+  </si>
+  <si>
+    <t>Indlæs SAS-fil og gem i et objekt</t>
+  </si>
+  <si>
+    <t>read_sas()</t>
+  </si>
+  <si>
+    <t>x &lt;- read_sas("filnavn.sas7bdat")</t>
+  </si>
+  <si>
+    <t>Indlæs R-fil og gem i et objekt</t>
+  </si>
+  <si>
+    <t>readRDS()</t>
+  </si>
+  <si>
+    <t>x &lt;- readRDS("filnavn.rds")</t>
+  </si>
+  <si>
+    <t>Find labels og variable i et datasæt</t>
+  </si>
+  <si>
+    <t>labelled</t>
+  </si>
+  <si>
+    <t>lookfor()</t>
+  </si>
+  <si>
+    <t>lookfor(df, "kvinde")</t>
+  </si>
+  <si>
+    <t>Fjern labels der ikke anvendes i et datasæt</t>
+  </si>
+  <si>
+    <t>drop_unused_value_labels()</t>
+  </si>
+  <si>
+    <t>drop_unused_value_labels(df)</t>
+  </si>
+  <si>
+    <t>Gem objekt som CSV-fil</t>
+  </si>
+  <si>
+    <t>writexl</t>
+  </si>
+  <si>
+    <t>saveRDS()</t>
+  </si>
+  <si>
+    <t>write_csv()</t>
+  </si>
+  <si>
+    <t>write_xlsx()</t>
+  </si>
+  <si>
+    <t>write_dta()</t>
+  </si>
+  <si>
+    <t>write_sav()</t>
+  </si>
+  <si>
+    <t>Gem objekt som Excel-fil</t>
+  </si>
+  <si>
+    <t>Gem objekt som Stata-fil</t>
+  </si>
+  <si>
+    <t>Gem objekt som SPSS-fil</t>
+  </si>
+  <si>
+    <t>Gem objekt som R data-fil</t>
+  </si>
+  <si>
+    <t>write_csv(df, "filnavn.csv")</t>
+  </si>
+  <si>
+    <t>write_xlsx(df, "filnavn.xlsx")</t>
+  </si>
+  <si>
+    <t>write_dta(df, "filnavn.dta")</t>
+  </si>
+  <si>
+    <t>write_sav(df, "filnavn.sav")</t>
+  </si>
+  <si>
+    <t>saveRDS(df, "filnavn.rds")</t>
+  </si>
+  <si>
+    <t>Giv tidy navne på dine variable i et objekt</t>
+  </si>
+  <si>
+    <t>janitor</t>
+  </si>
+  <si>
+    <t>clean_names()</t>
+  </si>
+  <si>
+    <t>clean_names(df)</t>
+  </si>
+  <si>
+    <t>filter()</t>
+  </si>
+  <si>
+    <t>filter(mtcars, carb == 4)</t>
+  </si>
+  <si>
+    <t>Vælg bestemte kolonner/variable i datasæt</t>
+  </si>
+  <si>
+    <t>Vælg bestemte rækker/observationer i datasæt</t>
+  </si>
+  <si>
+    <t>select()</t>
+  </si>
+  <si>
+    <t>select(mtcars, carb, wt)</t>
+  </si>
+  <si>
+    <t>Vælg variable der begynder med bestemt tekst</t>
+  </si>
+  <si>
+    <t>starts_with()</t>
+  </si>
+  <si>
+    <t>select(mtcars, starts_with("c"))</t>
+  </si>
+  <si>
+    <t>Lav en ny variabel i et datasæt</t>
+  </si>
+  <si>
+    <t>mutate()</t>
+  </si>
+  <si>
+    <t>mutate(mtcars, gear_sq = gear * gear)</t>
+  </si>
+  <si>
+    <t>Vælg observationer på baggrund af placering</t>
+  </si>
+  <si>
+    <t>slice()</t>
+  </si>
+  <si>
+    <t>slice(mtcars, 1:5)</t>
+  </si>
+  <si>
+    <t>Sorter observationer i datasæt</t>
+  </si>
+  <si>
+    <t>arrange()</t>
+  </si>
+  <si>
+    <t>arrange(mtcars, hp)</t>
+  </si>
+  <si>
+    <t>Skift placering på variabel i datasæt</t>
+  </si>
+  <si>
+    <t>relocate(mtcars, mpg, .before = carb)</t>
+  </si>
+  <si>
+    <t>relocate()</t>
+  </si>
+  <si>
+    <t>year("2022-06-20")</t>
+  </si>
+  <si>
+    <t>Få årstallet fra en bestemt dato</t>
+  </si>
+  <si>
+    <t>lubridate</t>
+  </si>
+  <si>
+    <t>year()</t>
+  </si>
+  <si>
+    <t>Få ugedagen fra en bestemt dato</t>
+  </si>
+  <si>
+    <t>wday()</t>
+  </si>
+  <si>
+    <t>wday("2022-06-20")</t>
+  </si>
+  <si>
+    <t>Få måneden fra en bestemt dato</t>
+  </si>
+  <si>
+    <t>month()</t>
+  </si>
+  <si>
+    <t>month("2022-06-20")</t>
+  </si>
+  <si>
+    <t>Få dagen fra en bestemt dato</t>
+  </si>
+  <si>
+    <t>day()</t>
+  </si>
+  <si>
+    <t>day("2022-06-20")</t>
   </si>
 </sst>
 </file>
@@ -663,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC1C9-0902-B24C-86A0-1CDE76C4733F}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,6 +1342,356 @@
         <v>86</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/findfunktion/funktioner.xlsx
+++ b/findfunktion/funktioner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Documents/rstatsdk/findfunktion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A524B8-93F6-DC4D-A8FB-6BBFA048BED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C698FDB-5C33-6645-B6D0-8BF49D5BDA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FF600F36-EA5E-C74D-94C9-FE8E6309351C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="193">
   <si>
     <t>Beskrivelse</t>
   </si>
@@ -558,6 +558,60 @@
   </si>
   <si>
     <t>day("2022-06-20")</t>
+  </si>
+  <si>
+    <t>group_by()</t>
+  </si>
+  <si>
+    <t>Grupper observationer</t>
+  </si>
+  <si>
+    <t>group_by(mtcars, vs)</t>
+  </si>
+  <si>
+    <t>summarise()</t>
+  </si>
+  <si>
+    <t>Summer grupper til færre rækker</t>
+  </si>
+  <si>
+    <t>summarise(group_by(mtcars, cyl), disp = mean(disp))</t>
+  </si>
+  <si>
+    <t>Skift data fra bredt til langt format</t>
+  </si>
+  <si>
+    <t>pivot_longer()</t>
+  </si>
+  <si>
+    <t>pivot_longer(relig_income, !religion)</t>
+  </si>
+  <si>
+    <t>Skift data fra langt til bredt format</t>
+  </si>
+  <si>
+    <t>pivot_wider()</t>
+  </si>
+  <si>
+    <t>pivot_wider(fish_encounters, names_from = station, values_from = seen)</t>
+  </si>
+  <si>
+    <t>Kombiner to datasæt med en fælles ID variabel</t>
+  </si>
+  <si>
+    <t>left_join()</t>
+  </si>
+  <si>
+    <t>left_join(band_members, band_instruments, by = "name")</t>
+  </si>
+  <si>
+    <t>Kombiner rækker fra flere objekter</t>
+  </si>
+  <si>
+    <t>bind_rows()</t>
+  </si>
+  <si>
+    <t>bind_rows(c(a = 1, b = 2), c(a = 3, b = 4))</t>
   </si>
 </sst>
 </file>
@@ -909,17 +963,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC1C9-0902-B24C-86A0-1CDE76C4733F}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1692,6 +1746,90 @@
         <v>174</v>
       </c>
     </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/findfunktion/funktioner.xlsx
+++ b/findfunktion/funktioner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Documents/rstatsdk/findfunktion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C698FDB-5C33-6645-B6D0-8BF49D5BDA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B38BBDA-A6B2-3341-9D20-A36D849B0EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FF600F36-EA5E-C74D-94C9-FE8E6309351C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="224">
   <si>
     <t>Beskrivelse</t>
   </si>
@@ -612,6 +612,99 @@
   </si>
   <si>
     <t>bind_rows(c(a = 1, b = 2), c(a = 3, b = 4))</t>
+  </si>
+  <si>
+    <t>Lav histogram med ggplot2</t>
+  </si>
+  <si>
+    <t>geom_histogram()</t>
+  </si>
+  <si>
+    <t>ggplot(mtcars, aes(mpg)) + geom_histogram()</t>
+  </si>
+  <si>
+    <t>Lav punktdiagram med ggplot2</t>
+  </si>
+  <si>
+    <t>geom_point()</t>
+  </si>
+  <si>
+    <t>ggplot(mtcars, aes(mpg, drat)) + geom_point()</t>
+  </si>
+  <si>
+    <t>Lav linjegraf med ggplot2</t>
+  </si>
+  <si>
+    <t>ggplot(mtcars, aes(mpg, drat)) + geom_line()</t>
+  </si>
+  <si>
+    <t>geom_line()</t>
+  </si>
+  <si>
+    <t>Lav vertikal linje på figur</t>
+  </si>
+  <si>
+    <t>geom_vline()</t>
+  </si>
+  <si>
+    <t>geom_vline(xintercept = 15)</t>
+  </si>
+  <si>
+    <t>Lav horisontal linje på figur</t>
+  </si>
+  <si>
+    <t>geom_hline()</t>
+  </si>
+  <si>
+    <t>geom_hline(yintercept = 15)</t>
+  </si>
+  <si>
+    <t>Skift tema til minimalt tema</t>
+  </si>
+  <si>
+    <t>Gennemfør binomial test</t>
+  </si>
+  <si>
+    <t>prop.test()</t>
+  </si>
+  <si>
+    <t>prop.test(x = 50, n = 100, p = 0.5)</t>
+  </si>
+  <si>
+    <t>chisq.test(c(Male = 500, Female = 500))</t>
+  </si>
+  <si>
+    <t>Gennemfør chi i anden-test</t>
+  </si>
+  <si>
+    <t>chisq.test()</t>
+  </si>
+  <si>
+    <t>Gennemfør t-test</t>
+  </si>
+  <si>
+    <t>t.test()</t>
+  </si>
+  <si>
+    <t>t.test(1:1000, mu = 500)</t>
+  </si>
+  <si>
+    <t>Gennemfør korrelationsanalyse</t>
+  </si>
+  <si>
+    <t>cor()</t>
+  </si>
+  <si>
+    <t>cor(mtcars$hp, mtcars$wt)</t>
+  </si>
+  <si>
+    <t>Gennemfør lineær regressionsmodel</t>
+  </si>
+  <si>
+    <t>lm()</t>
+  </si>
+  <si>
+    <t>lm(hp ~ wt, data = mtcars)</t>
   </si>
 </sst>
 </file>
@@ -963,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC1C9-0902-B24C-86A0-1CDE76C4733F}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1830,6 +1923,160 @@
         <v>192</v>
       </c>
     </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/findfunktion/funktioner.xlsx
+++ b/findfunktion/funktioner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikgahnerlarsen/Documents/rstatsdk/findfunktion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B38BBDA-A6B2-3341-9D20-A36D849B0EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD114DD-1CB8-FE4D-B169-BB8233541B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{FF600F36-EA5E-C74D-94C9-FE8E6309351C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="241">
   <si>
     <t>Beskrivelse</t>
   </si>
@@ -705,6 +705,57 @@
   </si>
   <si>
     <t>lm(hp ~ wt, data = mtcars)</t>
+  </si>
+  <si>
+    <t>Lav kategorier med lige mange observationer på baggrund af kontinuerlig variabel</t>
+  </si>
+  <si>
+    <t>cut_width()</t>
+  </si>
+  <si>
+    <t>cut_width(runif(1000), 0.1)</t>
+  </si>
+  <si>
+    <t>rio</t>
+  </si>
+  <si>
+    <t>convert()</t>
+  </si>
+  <si>
+    <t>convert("data.csv", "data.dta")</t>
+  </si>
+  <si>
+    <t>Konverter datasæt i fil til andet filformat</t>
+  </si>
+  <si>
+    <t>tidyplus</t>
+  </si>
+  <si>
+    <t>drop_na_all()</t>
+  </si>
+  <si>
+    <t>Drop rækker der kun har manglende værdier</t>
+  </si>
+  <si>
+    <t>drop_na_all(data, var1, var2)</t>
+  </si>
+  <si>
+    <t>Drop kolonner der ikke har nogen variation</t>
+  </si>
+  <si>
+    <t>drop_uninformative_columns()</t>
+  </si>
+  <si>
+    <t>drop_uninformative_columns(data)</t>
+  </si>
+  <si>
+    <t>uncount()</t>
+  </si>
+  <si>
+    <t>uncount(df, n)</t>
+  </si>
+  <si>
+    <t>Lav et antal af rækker på baggrund af variabel (modsat af count())</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC1C9-0902-B24C-86A0-1CDE76C4733F}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2077,6 +2128,76 @@
         <v>223</v>
       </c>
     </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>233</v>
+      </c>
+      <c r="B75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
